--- a/Cronograma de Actividades.xlsx
+++ b/Cronograma de Actividades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario-PC\Documents\GitHub\Admon.-Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7mo SEMESTRE\ADMINISTRACION DE PROYECTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">Demostración (explicación del juego). </t>
+  </si>
+  <si>
+    <t>Creación de repositorio.</t>
   </si>
 </sst>
 </file>
@@ -696,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV47"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1428,13 +1431,13 @@
     </row>
     <row r="13" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1480,19 +1483,19 @@
     </row>
     <row r="14" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="15" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1540,11 +1543,11 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -1583,21 +1586,21 @@
       <c r="AV15" s="14"/>
     </row>
     <row r="16" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="17" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1649,7 +1652,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="22"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -1688,7 +1691,7 @@
     </row>
     <row r="18" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1740,7 +1743,7 @@
     </row>
     <row r="19" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1753,7 +1756,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -1792,7 +1795,7 @@
     </row>
     <row r="20" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="21" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1896,7 +1899,7 @@
     </row>
     <row r="22" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1948,7 +1951,7 @@
     </row>
     <row r="23" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2000,7 +2003,7 @@
     </row>
     <row r="24" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2052,7 +2055,7 @@
     </row>
     <row r="25" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2104,7 +2107,7 @@
     </row>
     <row r="26" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="27" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2207,8 +2210,8 @@
       <c r="AV27" s="14"/>
     </row>
     <row r="28" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>19</v>
+      <c r="A28" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2259,8 +2262,8 @@
       <c r="AV28" s="14"/>
     </row>
     <row r="29" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>4</v>
+      <c r="A29" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="30" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2364,7 +2367,7 @@
     </row>
     <row r="31" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2416,7 +2419,7 @@
     </row>
     <row r="32" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="33" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2519,7 +2522,9 @@
       <c r="AV33" s="14"/>
     </row>
     <row r="34" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+      <c r="A34" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3169,54 +3174,104 @@
       <c r="AV46" s="14"/>
     </row>
     <row r="47" spans="1:48" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19"/>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19"/>
-      <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19"/>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="21"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="14"/>
+    </row>
+    <row r="48" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="19"/>
+      <c r="AP48" s="19"/>
+      <c r="AQ48" s="19"/>
+      <c r="AR48" s="19"/>
+      <c r="AS48" s="19"/>
+      <c r="AT48" s="19"/>
+      <c r="AU48" s="19"/>
+      <c r="AV48" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
